--- a/docs/HCT116 legend.xlsx
+++ b/docs/HCT116 legend.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Sample</t>
   </si>
@@ -36,16 +36,10 @@
     <t>S4</t>
   </si>
   <si>
-    <t>Control1</t>
-  </si>
-  <si>
-    <t>Control2</t>
-  </si>
-  <si>
-    <t>PEITC1</t>
-  </si>
-  <si>
-    <t>PEITC2</t>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>PEITC</t>
   </si>
 </sst>
 </file>
@@ -403,7 +397,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -444,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -453,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1"/>
     </row>
